--- a/input_data/16.xlsx
+++ b/input_data/16.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="244">
   <si>
     <t>ПС</t>
   </si>
@@ -467,9 +467,6 @@
     <t>Викованець</t>
   </si>
   <si>
-    <t>ПС "Новоукраїнська" 154/35/10 кВ</t>
-  </si>
-  <si>
     <t>ТДТН-25000/150</t>
   </si>
   <si>
@@ -771,6 +768,15 @@
   </si>
   <si>
     <t>Будинок ЗРУ 10</t>
+  </si>
+  <si>
+    <t>ПС "Новоукраїнська" 150/35/10 кВ</t>
+  </si>
+  <si>
+    <t>Короткозамикач 150кВ</t>
+  </si>
+  <si>
+    <t>КЗ-154</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -867,6 +873,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1172,7 +1179,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1199,19 +1206,19 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1223,7 +1230,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -1235,7 +1242,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -1247,7 +1254,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -1257,7 +1264,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -1267,7 +1274,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -1279,7 +1286,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -1291,7 +1298,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -1303,19 +1310,19 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -1327,7 +1334,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1339,19 +1346,19 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>19</v>
@@ -1363,7 +1370,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -1375,7 +1382,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -1387,7 +1394,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
@@ -1399,7 +1406,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -1411,7 +1418,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>24</v>
@@ -1423,7 +1430,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>26</v>
@@ -1435,7 +1442,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
@@ -1447,7 +1454,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>28</v>
@@ -1459,7 +1466,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>29</v>
@@ -1471,7 +1478,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>30</v>
@@ -1483,7 +1490,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>31</v>
@@ -1495,7 +1502,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>32</v>
@@ -1507,7 +1514,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>33</v>
@@ -1519,19 +1526,19 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>35</v>
@@ -1543,7 +1550,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>37</v>
@@ -1555,7 +1562,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>39</v>
@@ -1567,7 +1574,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>40</v>
@@ -1579,7 +1586,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>41</v>
@@ -1591,7 +1598,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>42</v>
@@ -1603,7 +1610,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>43</v>
@@ -1615,7 +1622,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>44</v>
@@ -1627,7 +1634,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>45</v>
@@ -1639,7 +1646,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>46</v>
@@ -1651,7 +1658,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>47</v>
@@ -1663,7 +1670,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>48</v>
@@ -1675,7 +1682,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>49</v>
@@ -1687,7 +1694,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>50</v>
@@ -1699,7 +1706,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>51</v>
@@ -1719,7 +1726,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
@@ -1745,7 +1752,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="1"/>
@@ -1885,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1914,18 +1921,18 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -1936,7 +1943,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -1947,7 +1954,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
@@ -1958,18 +1965,18 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1978,7 +1985,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -1989,7 +1996,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -2000,7 +2007,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
@@ -2011,18 +2018,18 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -2033,7 +2040,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
@@ -2044,7 +2051,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>53</v>
@@ -2053,7 +2060,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>19</v>
@@ -2064,7 +2071,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>20</v>
@@ -2075,7 +2082,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>21</v>
@@ -2086,7 +2093,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>22</v>
@@ -2097,7 +2104,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>23</v>
@@ -2108,7 +2115,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
@@ -2119,7 +2126,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -2130,7 +2137,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -2141,7 +2148,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
@@ -2152,7 +2159,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -2163,7 +2170,7 @@
     </row>
     <row r="25" spans="1:3" ht="25.5">
       <c r="A25" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
@@ -2174,7 +2181,7 @@
     </row>
     <row r="26" spans="1:3" ht="25.5">
       <c r="A26" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -2185,7 +2192,7 @@
     </row>
     <row r="27" spans="1:3" ht="25.5">
       <c r="A27" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
@@ -2196,7 +2203,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
@@ -2207,18 +2214,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>35</v>
@@ -2229,7 +2236,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>37</v>
@@ -2240,7 +2247,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>39</v>
@@ -2251,7 +2258,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>40</v>
@@ -2262,7 +2269,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>41</v>
@@ -2273,7 +2280,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>42</v>
@@ -2284,7 +2291,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>43</v>
@@ -2295,7 +2302,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>44</v>
@@ -2306,7 +2313,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>45</v>
@@ -2317,7 +2324,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>46</v>
@@ -2328,7 +2335,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>47</v>
@@ -2339,7 +2346,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>48</v>
@@ -2350,7 +2357,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>49</v>
@@ -2361,7 +2368,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>50</v>
@@ -2372,7 +2379,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>51</v>
@@ -2450,7 +2457,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
@@ -2505,7 +2512,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>62</v>
@@ -2514,7 +2521,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1">
         <v>446141</v>
@@ -2538,7 +2545,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
@@ -2547,7 +2554,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="1">
         <v>486304</v>
@@ -2583,8 +2590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
@@ -2628,16 +2635,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
@@ -2650,16 +2657,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
@@ -2672,16 +2679,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
@@ -2694,16 +2701,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
@@ -2716,7 +2723,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>66</v>
@@ -2734,7 +2741,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>66</v>
@@ -2743,7 +2750,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
@@ -2756,7 +2763,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>66</v>
@@ -2765,7 +2772,7 @@
         <v>70</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -2778,7 +2785,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>66</v>
@@ -2787,7 +2794,7 @@
         <v>71</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -2800,7 +2807,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>72</v>
@@ -2809,7 +2816,7 @@
         <v>73</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2818,7 +2825,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>72</v>
@@ -2827,7 +2834,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2836,7 +2843,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>72</v>
@@ -2845,7 +2852,7 @@
         <v>75</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2854,7 +2861,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>72</v>
@@ -2863,7 +2870,7 @@
         <v>76</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2872,7 +2879,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>72</v>
@@ -2881,7 +2888,7 @@
         <v>77</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2890,7 +2897,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>72</v>
@@ -2899,7 +2906,7 @@
         <v>78</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2908,7 +2915,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>72</v>
@@ -2917,7 +2924,7 @@
         <v>79</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2926,7 +2933,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>72</v>
@@ -2935,7 +2942,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2944,16 +2951,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2962,16 +2969,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2980,16 +2987,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
@@ -3002,16 +3009,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3020,16 +3027,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3038,16 +3045,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3056,16 +3063,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -3074,16 +3081,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -3092,16 +3099,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -3110,16 +3117,16 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -3128,16 +3135,16 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -3146,16 +3153,16 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -3164,16 +3171,16 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3182,16 +3189,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -3200,16 +3207,16 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -3218,16 +3225,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -3236,16 +3243,16 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -3254,16 +3261,16 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -3284,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
@@ -3347,7 +3354,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>85</v>
@@ -3383,7 +3390,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>89</v>
@@ -3395,7 +3402,7 @@
         <v>90</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="1">
         <v>10625</v>
@@ -3407,7 +3414,7 @@
         <v>1976</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J3" s="1">
         <v>1000</v>
@@ -3419,7 +3426,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>89</v>
@@ -3431,7 +3438,7 @@
         <v>91</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4" s="1">
         <v>10955</v>
@@ -3443,7 +3450,7 @@
         <v>1976</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J4" s="1">
         <v>1000</v>
@@ -3455,7 +3462,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>89</v>
@@ -3467,7 +3474,7 @@
         <v>92</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="1">
         <v>10745</v>
@@ -3479,7 +3486,7 @@
         <v>1976</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J5" s="1">
         <v>1000</v>
@@ -3491,19 +3498,19 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="1">
         <v>3935</v>
@@ -3515,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J6" s="1">
         <v>1000</v>
@@ -3527,19 +3534,19 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="1">
         <v>3830</v>
@@ -3551,7 +3558,7 @@
         <v>1981</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J7" s="1">
         <v>1000</v>
@@ -3563,19 +3570,19 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="1">
         <v>3831</v>
@@ -3587,7 +3594,7 @@
         <v>1982</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J8" s="1">
         <v>1000</v>
@@ -3599,19 +3606,19 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" s="1">
         <v>4252</v>
@@ -3623,7 +3630,7 @@
         <v>1981</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J9" s="1">
         <v>1000</v>
@@ -3635,19 +3642,19 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F10" s="1">
         <v>3881</v>
@@ -3659,7 +3666,7 @@
         <v>1984</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J10" s="1">
         <v>1000</v>
@@ -3671,19 +3678,19 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" s="1">
         <v>3951</v>
@@ -3695,7 +3702,7 @@
         <v>1984</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J11" s="1">
         <v>1000</v>
@@ -3707,19 +3714,19 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="F12" s="1">
         <v>3947</v>
@@ -3731,7 +3738,7 @@
         <v>1983</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J12" s="1">
         <v>1000</v>
@@ -3743,7 +3750,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>93</v>
@@ -3755,7 +3762,7 @@
         <v>94</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" s="1">
         <v>109173</v>
@@ -3777,7 +3784,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>93</v>
@@ -3786,10 +3793,10 @@
         <v>22</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="F14" s="1">
         <v>881239</v>
@@ -3811,7 +3818,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>93</v>
@@ -3820,10 +3827,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F15" s="1">
         <v>881412</v>
@@ -3845,7 +3852,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>93</v>
@@ -3854,10 +3861,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F16" s="1">
         <v>881248</v>
@@ -3879,7 +3886,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>93</v>
@@ -3891,7 +3898,7 @@
         <v>96</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F17" s="1">
         <v>109180</v>
@@ -3913,7 +3920,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>93</v>
@@ -3922,10 +3929,10 @@
         <v>12</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F18" s="1">
         <v>881247</v>
@@ -3947,7 +3954,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>93</v>
@@ -3956,10 +3963,10 @@
         <v>10</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F19" s="1">
         <v>881405</v>
@@ -3981,7 +3988,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>93</v>
@@ -3990,10 +3997,10 @@
         <v>8</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F20" s="1">
         <v>881408</v>
@@ -4015,7 +4022,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>93</v>
@@ -4027,7 +4034,7 @@
         <v>95</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F21" s="1">
         <v>109187</v>
@@ -4049,7 +4056,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>93</v>
@@ -4058,10 +4065,10 @@
         <v>23</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F22" s="1">
         <v>881406</v>
@@ -4083,7 +4090,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>93</v>
@@ -4092,10 +4099,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F23" s="1">
         <v>881250</v>
@@ -4117,7 +4124,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>93</v>
@@ -4126,10 +4133,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F24" s="1">
         <v>881404</v>
@@ -4151,7 +4158,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>93</v>
@@ -4160,10 +4167,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F25" s="1">
         <v>881413</v>
@@ -4185,7 +4192,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>93</v>
@@ -4194,10 +4201,10 @@
         <v>15</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F26" s="1">
         <v>881409</v>
@@ -4219,7 +4226,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>93</v>
@@ -4228,10 +4235,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F27" s="1">
         <v>881251</v>
@@ -4253,7 +4260,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>93</v>
@@ -4262,10 +4269,10 @@
         <v>11</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F28" s="1">
         <v>881253</v>
@@ -4287,7 +4294,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>93</v>
@@ -4296,10 +4303,10 @@
         <v>9</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F29" s="1">
         <v>881246</v>
@@ -4321,7 +4328,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>93</v>
@@ -4330,10 +4337,10 @@
         <v>7</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30" s="1">
         <v>881252</v>
@@ -4368,10 +4375,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
@@ -4415,7 +4422,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>97</v>
@@ -4424,7 +4431,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
@@ -4435,25 +4442,62 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
+      <c r="D6" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>1967</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="G10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -4469,8 +4513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
@@ -4525,7 +4569,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>103</v>
@@ -4540,7 +4584,7 @@
         <v>106</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G2" s="1">
         <v>2018</v>
@@ -4549,15 +4593,15 @@
         <v>2019</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>103</v>
@@ -4572,7 +4616,7 @@
         <v>106</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="1">
         <v>2018</v>
@@ -4581,15 +4625,15 @@
         <v>2019</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>103</v>
@@ -4604,7 +4648,7 @@
         <v>106</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="1">
         <v>2018</v>
@@ -4613,15 +4657,15 @@
         <v>2019</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>103</v>
@@ -4636,7 +4680,7 @@
         <v>106</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G5" s="1">
         <v>2018</v>
@@ -4645,15 +4689,15 @@
         <v>2019</v>
       </c>
       <c r="I5" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>103</v>
@@ -4668,7 +4712,7 @@
         <v>106</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G6" s="1">
         <v>2018</v>
@@ -4677,15 +4721,15 @@
         <v>2019</v>
       </c>
       <c r="I6" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>103</v>
@@ -4700,7 +4744,7 @@
         <v>106</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G7" s="1">
         <v>2018</v>
@@ -4709,21 +4753,21 @@
         <v>2019</v>
       </c>
       <c r="I7" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>105</v>
@@ -4732,7 +4776,7 @@
         <v>106</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="1">
         <v>2018</v>
@@ -4741,21 +4785,21 @@
         <v>2019</v>
       </c>
       <c r="I8" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>107</v>
@@ -4764,7 +4808,7 @@
         <v>106</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G9" s="1">
         <v>2018</v>
@@ -4773,21 +4817,21 @@
         <v>2019</v>
       </c>
       <c r="I9" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>108</v>
@@ -4796,7 +4840,7 @@
         <v>106</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G10" s="1">
         <v>2018</v>
@@ -4805,21 +4849,21 @@
         <v>2019</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>105</v>
@@ -4828,7 +4872,7 @@
         <v>106</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G11" s="1">
         <v>2018</v>
@@ -4837,21 +4881,21 @@
         <v>2019</v>
       </c>
       <c r="I11" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>107</v>
@@ -4860,7 +4904,7 @@
         <v>106</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G12" s="1">
         <v>2018</v>
@@ -4869,21 +4913,21 @@
         <v>2019</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>108</v>
@@ -4892,7 +4936,7 @@
         <v>106</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G13" s="1">
         <v>2018</v>
@@ -4901,27 +4945,27 @@
         <v>2019</v>
       </c>
       <c r="I13" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F14" s="1">
         <v>53765</v>
@@ -4940,19 +4984,19 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F15" s="1">
         <v>71963</v>
@@ -4971,13 +5015,13 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>105</v>
@@ -5000,13 +5044,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>107</v>
@@ -5029,13 +5073,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>108</v>
@@ -5058,13 +5102,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>105</v>
@@ -5083,19 +5127,19 @@
         <v>400</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>107</v>
@@ -5114,19 +5158,19 @@
         <v>400</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>108</v>
@@ -5145,19 +5189,19 @@
         <v>400</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>129</v>
@@ -5182,16 +5226,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>110</v>
@@ -5211,13 +5255,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>131</v>
@@ -5242,13 +5286,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>129</v>
@@ -5273,16 +5317,16 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>110</v>
@@ -5304,13 +5348,13 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>131</v>
@@ -5334,13 +5378,13 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>129</v>
@@ -5364,16 +5408,16 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>110</v>
@@ -5394,13 +5438,13 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>129</v>
@@ -5424,19 +5468,19 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F31" s="1">
         <v>67918</v>
@@ -5454,7 +5498,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>113</v>
@@ -5466,7 +5510,7 @@
         <v>129</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F32" s="1">
         <v>5705</v>
@@ -5486,7 +5530,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>113</v>
@@ -5495,10 +5539,10 @@
         <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F33" s="1">
         <v>5706</v>
@@ -5518,7 +5562,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>113</v>
@@ -5530,7 +5574,7 @@
         <v>131</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F34" s="1">
         <v>5702</v>
@@ -5550,7 +5594,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>113</v>
@@ -5562,7 +5606,7 @@
         <v>129</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F35" s="1">
         <v>5617</v>
@@ -5582,7 +5626,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>113</v>
@@ -5591,10 +5635,10 @@
         <v>95</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F36" s="1">
         <v>5618</v>
@@ -5614,7 +5658,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>113</v>
@@ -5626,7 +5670,7 @@
         <v>108</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F37" s="1">
         <v>5619</v>
@@ -5646,7 +5690,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>113</v>
@@ -5658,7 +5702,7 @@
         <v>105</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F38" s="1">
         <v>5703</v>
@@ -5678,7 +5722,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>113</v>
@@ -5690,7 +5734,7 @@
         <v>108</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F39" s="1">
         <v>5704</v>
@@ -5710,19 +5754,19 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F40" s="1">
         <v>5561</v>
@@ -5742,19 +5786,19 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F41" s="1">
         <v>5563</v>
@@ -5774,19 +5818,19 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F42" s="1">
         <v>5531</v>
@@ -5806,19 +5850,19 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F43" s="1">
         <v>5532</v>
@@ -5838,19 +5882,19 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F44" s="1">
         <v>5562</v>
@@ -5870,19 +5914,19 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F45" s="1">
         <v>5555</v>
@@ -5902,19 +5946,19 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F46" s="1">
         <v>5529</v>
@@ -5934,19 +5978,19 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F47" s="1">
         <v>5528</v>
@@ -5966,19 +6010,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F48" s="1">
         <v>5554</v>
@@ -5998,19 +6042,19 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F49" s="1">
         <v>5560</v>
@@ -6030,19 +6074,19 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F50" s="1">
         <v>5544</v>
@@ -6062,19 +6106,19 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F51" s="1">
         <v>5542</v>
@@ -6094,13 +6138,13 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>105</v>
@@ -6114,13 +6158,13 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>108</v>
@@ -6134,19 +6178,19 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F54" s="1">
         <v>5664</v>
@@ -6166,19 +6210,19 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F55" s="1">
         <v>5665</v>
@@ -6198,19 +6242,19 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F56" s="1">
         <v>5666</v>
@@ -6230,19 +6274,19 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F57" s="1">
         <v>6661</v>
@@ -6262,19 +6306,19 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F58" s="1">
         <v>5663</v>
@@ -6294,19 +6338,19 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F59" s="1">
         <v>5658</v>
@@ -6326,19 +6370,19 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F60" s="1">
         <v>30907</v>
@@ -6358,19 +6402,19 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F61" s="1">
         <v>30908</v>
@@ -6390,19 +6434,19 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F62" s="1">
         <v>30906</v>
@@ -6422,19 +6466,19 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F63" s="1">
         <v>5660</v>
@@ -6454,19 +6498,19 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F64" s="1">
         <v>5662</v>
@@ -6486,19 +6530,19 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F65" s="1">
         <v>5614</v>
@@ -6518,19 +6562,19 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F66" s="1">
         <v>5613</v>
@@ -6550,19 +6594,19 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F67" s="1">
         <v>5667</v>
@@ -6582,19 +6626,19 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F68" s="1">
         <v>5659</v>
@@ -6614,19 +6658,19 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F69" s="1">
         <v>5545</v>
@@ -6646,19 +6690,19 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F70" s="1">
         <v>5543</v>
@@ -6697,7 +6741,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6752,7 +6796,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>117</v>
@@ -6767,7 +6811,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G2" s="1">
         <v>2018</v>
@@ -6784,7 +6828,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>117</v>
@@ -6799,7 +6843,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" s="1">
         <v>2018</v>
@@ -6816,7 +6860,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>117</v>
@@ -6831,7 +6875,7 @@
         <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="1">
         <v>2018</v>
@@ -6848,7 +6892,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>117</v>
@@ -6863,7 +6907,7 @@
         <v>119</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G5" s="1">
         <v>2018</v>
@@ -6880,7 +6924,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>117</v>
@@ -6895,7 +6939,7 @@
         <v>119</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G6" s="1">
         <v>2018</v>
@@ -6912,7 +6956,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>117</v>
@@ -6927,7 +6971,7 @@
         <v>119</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G7" s="1">
         <v>2018</v>
@@ -6944,7 +6988,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>122</v>
@@ -6956,10 +7000,10 @@
         <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G8" s="1">
         <v>2014</v>
@@ -6976,7 +7020,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>122</v>
@@ -6988,10 +7032,10 @@
         <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G9" s="1">
         <v>2014</v>
@@ -7008,7 +7052,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>122</v>
@@ -7020,10 +7064,10 @@
         <v>108</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G10" s="1">
         <v>2014</v>
@@ -7040,7 +7084,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>122</v>
@@ -7070,7 +7114,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>122</v>
@@ -7100,7 +7144,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>122</v>
@@ -7130,7 +7174,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>127</v>
@@ -7142,7 +7186,7 @@
         <v>129</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F14" s="1">
         <v>4000398</v>
@@ -7162,7 +7206,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>127</v>
@@ -7171,10 +7215,10 @@
         <v>128</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F15" s="1">
         <v>4000408</v>
@@ -7194,7 +7238,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>127</v>
@@ -7206,7 +7250,7 @@
         <v>131</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F16" s="1">
         <v>4000407</v>
@@ -7226,7 +7270,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>127</v>
@@ -7238,7 +7282,7 @@
         <v>129</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F17" s="1">
         <v>4000365</v>
@@ -7258,7 +7302,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>127</v>
@@ -7267,10 +7311,10 @@
         <v>132</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F18" s="1">
         <v>4000405</v>
@@ -7290,7 +7334,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>127</v>
@@ -7302,7 +7346,7 @@
         <v>131</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F19" s="1">
         <v>4000405</v>
@@ -7353,7 +7397,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -7379,10 +7423,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2">
         <v>307.5</v>
@@ -7390,10 +7434,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3">
         <v>179.4</v>
@@ -7401,7 +7445,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
         <v>135</v>
@@ -7412,7 +7456,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
         <v>136</v>
